--- a/packages/jsreport-xlsx/test/xlsx/loop-existing-formula-cross-sheet-reference.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/loop-existing-formula-cross-sheet-reference.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E013CA8-8E2C-C14F-B4BA-FB4F396EB15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B68FA-1076-0E4C-A1FF-95CD5FE2EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45500" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3BEBBF8C-DD02-714E-95D6-F485BE283C4B}"/>
+    <workbookView xWindow="45480" yWindow="2000" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{3BEBBF8C-DD02-714E-95D6-F485BE283C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="B" sheetId="3" r:id="rId2"/>
     <sheet name="C" sheetId="4" r:id="rId3"/>
-    <sheet name="DATA" sheetId="2" r:id="rId4"/>
+    <sheet name="After Loop" sheetId="5" r:id="rId4"/>
+    <sheet name="DATA" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>{{#each items}}{{value}}</t>
   </si>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA7EF-B156-8C48-93E9-6490B6EC789D}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,11 +487,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07F2964-A0E7-E34F-8259-39F10A99CDFF}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="e">
+        <f>A4+DATA!A1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e">
+        <f>A4+DATA!B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e">
+        <f>A4+DATA!C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C8A538-2D5F-804C-A384-4B28BBB128B7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/packages/jsreport-xlsx/test/xlsx/loop-existing-formula-cross-sheet-reference.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/loop-existing-formula-cross-sheet-reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B68FA-1076-0E4C-A1FF-95CD5FE2EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E9BC7B-E176-E345-B0CA-46D474B52402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45480" yWindow="2000" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{3BEBBF8C-DD02-714E-95D6-F485BE283C4B}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="19200" windowHeight="10560" xr2:uid="{3BEBBF8C-DD02-714E-95D6-F485BE283C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8C395A-A101-4548-A5C3-EF709BD95745}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07F2964-A0E7-E34F-8259-39F10A99CDFF}">
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
